--- a/dados/Carcavelos.xlsx
+++ b/dados/Carcavelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liliana Ramalho\PycharmProjects\Rotas Brisa\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA45B2-5EC1-4A50-84D1-E8EC25B03367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3DA6AE-7419-44EB-A0A8-64DFDD9AC5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{C7B9A9F7-23EE-4672-AD67-8D6D05A3DE7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C7B9A9F7-23EE-4672-AD67-8D6D05A3DE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="74">
   <si>
     <t>Auto-Estrada</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Nó de Alverca</t>
+  </si>
+  <si>
+    <t>patrulha</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FA447-55AE-4EA1-917F-8F1665E29179}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +635,7 @@
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +672,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -707,8 +713,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -745,8 +754,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -821,8 +836,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -859,8 +877,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -897,8 +918,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -935,8 +959,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -973,8 +1000,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1011,8 +1041,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1082,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1087,8 +1123,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1124,6 +1163,9 @@
       </c>
       <c r="L13">
         <v>0</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1178,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B41"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1526,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1552,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1518,7 +1560,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1534,98 +1576,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1796,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA70C23D-D854-4663-9D8F-FEAD0E3E1750}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection sqref="A1:H145"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
